--- a/DOM_Banner/output/dept_banner/Rebecca Thiede_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Rebecca Thiede_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,699 +360,328 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Brenna G. Kelly, B. R. V. Forbes, Rebecca Thiede</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4224870206</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Late-onset systemic lupus erythematosus associated with inverse discoid lupus erythematosus on the buttock</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5083943334", "https://openalex.org/A5035885628", "https://openalex.org/A5079556761"), au_display_name = c("Brenna G. Kelly", "B. R. V. Forbes", "Rebecca Thiede"), au_orcid = c("https://orcid.org/0000-0002-0081-8959", "https://orcid.org/0000-0002-2638-0473", NA), author_position = c("first", "middle", "last"), au_affiliation_raw = c("Department of Dermatology, Medical College of Wisconsin, Milwaukee, Wisconsin", "Division of Dermatology, University of Arizona, Tucson, Arizona", 
-"Division of Dermatology, University of Arizona, Tucson, Arizona"), institution_id = c("https://openalex.org/I204308271", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("Medical College of Wisconsin", "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/00qqv6244", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US"), institution_type = c("education", "education", 
-"education"), institution_lineage = c("https://openalex.org/I204308271", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>IntroductionDiscoid lupus erythematosus (DLE) is important to diagnose early, as treatment is critical for preventing permanent scarring and for identifying possible systemic involvement. Diagnosis is frequently aided by the presence of photosensitive lesions of the head and neck; however, in rare cases, photosensitive lesions may not be present, thus clouding the diagnosis. Importantly, more research is needed to highlight these atypical cases, since they can be associated with greater morbidity.Case reportA 56-year-old Hispanic woman with a history of Hashimoto disease, gastritis, and hepatitis C was admitted for a multiday history of double and blurry vision with sharp, stabbing, bilateral eye pain, vertigo, and headaches. The patient also reported months of intermittent fevers, night sweats, and loss of appetite. Neurologic examination was significant for left abducens-nerve palsy, but she otherwise had normal strength, sensation, and motor skills. Skin examination revealed a large hyperpigmented scaly plaque with areas of atrophy on her superior aspect of left buttock and lower portion of the back, for which dermatology was consulted (Fig 1). Skin examination was otherwise unremarkable. No lesions were appreciated on the scalp, face, ears (including conchal bowls), or chest. Laboratory tests revealed normocytic anemia and elevated C-reactive protein and erythrocyte sedimentation rate. Magnetic resonance imaging without contrast was significant for 3 new subcentimeter hyperintense lesions in the bilateral centrum semiovale. Lumbar puncture revealed sterile cerebrospinal fluid.During initial dermatologic consultation, the patient noted that the rash on her back and buttock had been present for approximately 5 months and initially began as a tender pink plaque that enlarged and progressed to develop dyspigmentation and areas of scarring. The lesion was otherwise asymptomatic. She denied any history of similar lesions elsewhere on her body. After examination, 2 lesional skin punch biopsies were taken; one for hematoxylin-eosin staining, and the other for direct immunofluorescence test. The differential diagnoses at this time included cutaneous lupus (subacute cutaneous lupus erythematosus and DLE) versus dermatomyositis versus mixed connective tissue disease versus atypical allergic dermatitis. Histopathologic analysis of the hematoxylin-eosin staining revealed a patchy lichenoid interface dermatitis with superficial and deep periadnexal and perieccrine lymphoplasmacytic inflammatory infiltrate with background-increased dermal mucin deposition (Figs 2 and 3). Direct immunofluorescence test showed dense granular staining for immunoglobulin M, IgG, IgA, C3, C5b-9, and cytoid bodies along the epidermal and adnexal basement membrane zone. Given the extensive immunoreactant deposition with adnexal involvement on direct immunofluorescence test and the clinical examination of an isolated, hyperpigmented, and atrophic plaque, DLE was favored over other diagnoses. Furthermore, the patient tested negative for anti-Ro antibodies, supporting the diagnosis of DLE over subacute cutaneous lupus erythematosus. Additional rheumatologic workup was significant for positivity for antinuclear, anti-double–stranded DNA, anti-Smith, and anti-ribonucleoprotein antibodies, and she was subsequently diagnosed with systemic lupus erythematosus (SLE) and lupus cerebritis in the setting of her neurologic manifestations. The patient’s cutaneous disease improved after starting a topical calcineurin inhibitor in addition to systemic treatment with hydroxychloroquine and belimumab for her SLE.Fig 2Discoid lupus erythematosus (hematoxylin-eosin stain; original magnification: ×4).View Large Image Figure ViewerDownload Hi-res image Download (PPT)Fig 3Discoid lupus erythematosus (hematoxylin-eosin stain; original magnification: ×10).View Large Image Figure ViewerDownload Hi-res image Download (PPT)DiscussionDLE is the most common clinical variant (50%) of chronic cutaneous lupus erythematosus and disproportionately affects those with skin of color.1Elman S.A. Joyce C. Nyberg F. et al.Development of classification criteria for discoid lupus erythematosus: results of a Delphi exercise.J Am Acad Dermatol. 2017; 77: 261-267https://doi.org/10.1016/j.jaad.2017.02.030Abstract Full Text Full Text PDF PubMed Scopus (40) Google Scholar,2Santiago-Casas Y. Vilá L.M. McGwin Jr., G. et al.Association of discoid lupus erythematosus with clinical manifestations and damage accrual in a multiethnic lupus cohort.Arthritis Care Res (Hoboken). 2012; 64: 704-712https://doi.org/10.1002/acr.21581Crossref PubMed Scopus (26) Google Scholar Since DLE can lead to scarring and dyspigmentation, it is critical to diagnose the condition early to prevent morbidity. DLE has a strong tendency to appear in photosensitive areas, such as the face, ears, and scalp; a feature that frequently aids in the diagnosis. DLE that occurs on photo-protected sites is rare and, when present, is most often associated with lesions concurrently present on photosensitive sites.3Bolognia JL, Jorizzo JL, Schaffer JV, eds. Dermatology Vol 1. 3rd ed. Elsevier Saunders; 2012.Google Scholar This variant of discoid lesions appearing both above and below the neck is otherwise known as generalized/disseminated DLE and represents roughly 20% of all DLE cases. In contrast, localized DLE is commonly accepted as the presence of lesions confined to the head and neck. While there is no established classification for DLE lesions solely below the neck, our patient’s presentation of an isolated lesion on the trunk might be best categorized as an atypical generalized DLE without head or neck involvement.Another rare feature of this case is that our patient, with an isolated discoid lesion, went on to develop systemic lupus. Systemic lupus in association with DLE is uncommon; only approximately 50% of patients with discoid lupus are positive for antinuclear antibody, and only 5% to 20% develop systemic features of SLE.2Santiago-Casas Y. Vilá L.M. McGwin Jr., G. et al.Association of discoid lupus erythematosus with clinical manifestations and damage accrual in a multiethnic lupus cohort.Arthritis Care Res (Hoboken). 2012; 64: 704-712https://doi.org/10.1002/acr.21581Crossref PubMed Scopus (26) Google Scholar,4Wenzel J. Cutaneous lupus erythematosus: new insights into pathogenesis and therapeutic strategies.Nat Rev Rheumatol. 2019; 15: 519-532https://doi.org/10.1038/s41584-019-0272-0Crossref PubMed Scopus (78) Google Scholar Those with DLE who do go on to develop systemic lupus mostly have mild, predominantly musculoskeletal, symptoms.5O'Brien J.C. Chong B.F. Not just skin deep: systemic disease involvement in patients with cutaneous lupus.J Investig Dermatol Symp Proc. 2017; 18: S69-S74https://doi.org/10.1016/j.jisp.2016.09.001Abstract Full Text Full Text PDF PubMed Scopus (9) Google Scholar Additionally, most patients with DLE who develop systemic symptoms have multiple discoid lesions located throughout the body.6Uva L. Miguel D. Pinheiro C. Freitas J.P. Marques Gomes M. Filipe P. Cutaneous manifestations of systemic lupus erythematosus.Autoimmune Dis. 2012; 2012: 834291https://doi.org/10.1155/2012/834291Crossref PubMed Scopus (55) Google Scholar This patient, with an isolated lesion, developed systemic lupus in the form of lupus cerebritis, a more severe manifestation of systemic lupus. Lupus cerebritis describes the neuropsychiatric manifestations of SLE and most commonly manifests as headaches, cognitive dysfunction, and psychiatric disorders.7Goswami D. Chatterjee S. Ahmad B.I. Das S. Two case reports indicating the dilemma in diagnosing lupus cerebritis.J Family Med Prim Care. 2013; 2: 111-114https://doi.org/10.4103/2249-4863.109973Crossref PubMed Google Scholar Vision problems are less common and are considered a more severe symptom.7Goswami D. Chatterjee S. Ahmad B.I. Das S. Two case reports indicating the dilemma in diagnosing lupus cerebritis.J Family Med Prim Care. 2013; 2: 111-114https://doi.org/10.4103/2249-4863.109973Crossref PubMed Google Scholar Associated abducens-nerve palsy has been described in the literature, though rarely so.8Saleh Z. Menassa J. Abbas O. Atweh S. Arayssi T. Cranial nerve VI palsy as a rare initial presentation of systemic lupus erythematosus: case report and review of the literature.Lupus. 2010; 19: 201-205https://doi.org/10.1177/0961203309345722Crossref PubMed Scopus (16) Google ScholarOverall, our case represents an unusual case of SLE in association with DLE. The patient presented with an isolated discoid lesion on the photo-protected area of her lower portion of the back and buttock and subsequently went on to develop lupus cerebritis, a severe manifestation of systemic lupus. SLE can be difficult to diagnose given its frequent nonspecific and overlapping symptoms with many other different conditions. Photosensitive lesions can be a helpful clue to assess the diagnosis; however, our case demonstrates that overreliance on this identifying feature can lead to a situation where more insidious cases are missed. Hence, our case emphasizes the importance of high clinical suspicion and critical thinking in the absence of photosensitive lesions. Notably, given our patient’s age, she technically qualifies as having late-onset SLE, which is when the disease develops after the age of 50.9Boddaert J. Huong D.L.T. Amoura Z. Wechsler B. Godeau P. Piette J.C. Late-onset systemic lupus erythematosus: a personal series of 47 patients and pooled analysis of 714 cases in the literature.Medicine (Baltimore). 2004; 83: 348-359https://doi.org/10.1097/01.md.0000147737.57861.7cCrossref PubMed Scopus (174) Google Scholar Late-onset SLE has been known to present with atypical SLE symptoms, and this may explain the unusual features of this case.10Rovenský J. Tuchynová A. Systemic lupus erythematosus in the elderly.Autoimmun Rev. 2008; 7: 235-239https://doi.org/10.1016/j.autrev.2007.11.014Crossref PubMed Scopus (91) Google Scholar Lastly, previous studies have highlighted that, although there is extensive data on patients with isolated DLE, there are few studies that have analyzed the clinical characteristics of SLE associated with DLE.2Santiago-Casas Y. Vilá L.M. McGwin Jr., G. et al.Association of discoid lupus erythematosus with clinical manifestations and damage accrual in a multiethnic lupus cohort.Arthritis Care Res (Hoboken). 2012; 64: 704-712https://doi.org/10.1002/acr.21581Crossref PubMed Scopus (26) Google Scholar Of the few studies that do exist, the largest study found that these patients are at particularly increased risk of developing serious manifestations such as vasculitis and chronic seizures.2Santiago-Casas Y. Vilá L.M. McGwin Jr., G. et al.Association of discoid lupus erythematosus with clinical manifestations and damage accrual in a multiethnic lupus cohort.Arthritis Care Res (Hoboken). 2012; 64: 704-712https://doi.org/10.1002/acr.21581Crossref PubMed Scopus (26) Google Scholar For this reason, identifying and surveilling these patients is critical, and more research is needed to further characterize this susceptible population. IntroductionDiscoid lupus erythematosus (DLE) is important to diagnose early, as treatment is critical for preventing permanent scarring and for identifying possible systemic involvement. Diagnosis is frequently aided by the presence of photosensitive lesions of the head and neck; however, in rare cases, photosensitive lesions may not be present, thus clouding the diagnosis. Importantly, more research is needed to highlight these atypical cases, since they can be associated with greater morbidity.</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>JAAD Case Reports</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>JAAD Case Reports</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2764486142</t>
+          <t>https://doi.org/10.1016/j.jdcr.2022.04.012</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2352-5126</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35662853</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/j.jdcr.2022.04.012</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>http://www.jaadcasereports.org/article/S2352512622001916/pdf</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by-nc-nd</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>http://www.jaadcasereports.org/article/S2352512622001916/pdf</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4224870206</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4224870206", doi = "https://doi.org/10.1016/j.jdcr.2022.04.012", pmid = "https://pubmed.ncbi.nlm.nih.gov/35662853")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jdcr.2022.04.012</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1837244570", "https://openalex.org/W1987054275", "https://openalex.org/W1989298848", "https://openalex.org/W2028761302", "https://openalex.org/W2028903411", "https://openalex.org/W2076357340", "https://openalex.org/W2621893371", "https://openalex.org/W2756298076", "https://openalex.org/W2967013541")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4231114500", "https://openalex.org/W2062941269", "https://openalex.org/W4230225083", "https://openalex.org/W4235321515", "https://openalex.org/W2077887030", "https://openalex.org/W2083737055", "https://openalex.org/W4367291848", "https://openalex.org/W2041140582", "https://openalex.org/W2080522007", "https://openalex.org/W1498170310")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Rebecca Thiede, Mohammad Reza Fazel, Karen MacDonald, Ivo Abraham</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4297964984</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Does synthetic pharmacotherapy still have a place in treating chronic spontaneous urticaria?</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5079556761", "https://openalex.org/A5052750980", "https://openalex.org/A5090261710", "https://openalex.org/A5002479254"), au_display_name = c("Rebecca Thiede", "Mohammad Reza Fazel", "Karen MacDonald", "Ivo Abraham"), au_orcid = c(NA, "https://orcid.org/0000-0002-5383-1997", "https://orcid.org/0000-0002-4568-9783", "https://orcid.org/0000-0003-0490-4421"), author_position = c("first", "middle", "middle", "last"), au_affiliation_raw = c("Division of Dermatology, College of Medicine, University of Arizona, Tucson, AZ, USA.", 
-"Division of Dermatology, College of Medicine, University of Arizona, Tucson, AZ, USA.", "Matrix45, Tucson, AZ, USA.", "Center for Health Outcomes and PharmacoEconomic Research, University of Arizona, Tucson, AZ, USA.; Matrix45, Tucson, AZ, USA."), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I4210158408", "https://openalex.org/I4210158408"), institution_display_name = c("University of Arizona", "University of Arizona", "Matrix Research (United States)", 
-"Matrix Research (United States)"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/04mw0p229", "https://ror.org/04mw0p229"), institution_country_code = c("US", "US", "US", "US"), institution_type = c("education", "education", "company", "company"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I4210158408", "https://openalex.org/I4210158408"
-))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>KEYWORDS: Urticariaspontaneous chronic urticariaspontaneous idiopathic urticariaH1 blockersomalizumabcyclosporin</t>
+          <t>2022-09-22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-09-22</t>
+          <t>Expert Opinion on Pharmacotherapy</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Expert Opinion on Pharmacotherapy</t>
+          <t>Taylor &amp; Francis</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S52020611</t>
+          <t>https://doi.org/10.1080/14656566.2022.2128671</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Taylor &amp; Francis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1465-6566</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36173375</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1080/14656566.2022.2128671</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://www.tandfonline.com/doi/pdf/10.1080/14656566.2022.2128671?needAccess=true&amp;role=button</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>1563</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>1567</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>https://www.tandfonline.com/doi/pdf/10.1080/14656566.2022.2128671?needAccess=true&amp;role=button</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4297964984</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4297964984", doi = "https://doi.org/10.1080/14656566.2022.2128671", pmid = "https://pubmed.ncbi.nlm.nih.gov/36173375")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/14656566.2022.2128671</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W130205125", "https://openalex.org/W1968667225", "https://openalex.org/W1993225559", "https://openalex.org/W1999299501", "https://openalex.org/W2024045584", "https://openalex.org/W2066390662", "https://openalex.org/W2069724741", "https://openalex.org/W2075154871", "https://openalex.org/W2085255857", "https://openalex.org/W2121663010", "https://openalex.org/W2122930216", "https://openalex.org/W2126118326", "https://openalex.org/W2140012971", "https://openalex.org/W2145824293", 
-"https://openalex.org/W2149809437", "https://openalex.org/W2156152702", "https://openalex.org/W2164501848", "https://openalex.org/W2170610796", "https://openalex.org/W2243756594", "https://openalex.org/W2328847226", "https://openalex.org/W2474968911", "https://openalex.org/W2585403928", "https://openalex.org/W2594179684", "https://openalex.org/W2619731065", "https://openalex.org/W2736673906", "https://openalex.org/W2790269034", "https://openalex.org/W2794161041", "https://openalex.org/W2804965132", 
-"https://openalex.org/W2857688183", "https://openalex.org/W2901940756", "https://openalex.org/W2903336629", "https://openalex.org/W2969921938", "https://openalex.org/W2972685606", "https://openalex.org/W2978592627", "https://openalex.org/W3000972941", "https://openalex.org/W3006719672", "https://openalex.org/W3007315384", "https://openalex.org/W3025104320", "https://openalex.org/W3025256437", "https://openalex.org/W3047456285", "https://openalex.org/W3097354585", "https://openalex.org/W3134788318", 
-"https://openalex.org/W3158816022", "https://openalex.org/W3200862524", "https://openalex.org/W3211732924", "https://openalex.org/W3213611043", "https://openalex.org/W3215058680")</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W3088605904", "https://openalex.org/W2186070728", "https://openalex.org/W2346803653", "https://openalex.org/W2738981461", "https://openalex.org/W2047534683", "https://openalex.org/W2157706127", "https://openalex.org/W2117456962", "https://openalex.org/W3120531059", "https://openalex.org/W2100562939", "https://openalex.org/W2398697430")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Alexandre J Motta, Rebecca Thiede, Claudia I. Stanescu, Janet Corral</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307501602</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Constructing a Culturally Conscious Dermatology Image Collection for Undergraduate Medical Education</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5082470790", "https://openalex.org/A5079556761", "https://openalex.org/A5069804095", "https://openalex.org/A5079749522"), au_display_name = c("Alexandre J Motta", "Rebecca Thiede", "Claudia I. Stanescu", "Janet Corral"), au_orcid = c(NA, NA, NA, NA), author_position = c("first", "middle", "middle", "last"), au_affiliation_raw = c("Author affiliation:A.J. Motta, R. Thiede, C. Stanescu, J. Corral, University of Arizona College of Medicine", "Author affiliation:A.J. Motta, R. Thiede, C. Stanescu, J. Corral, University of Arizona College of Medicine", 
-"Author affiliation:A.J. Motta, R. Thiede, C. Stanescu, J. Corral, University of Arizona College of Medicine", "Author affiliation:A.J. Motta, R. Thiede, C. Stanescu, J. Corral, University of Arizona College of Medicine"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona"
-), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", "US"), institution_type = c("education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"
-))</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Purpose: The paucity of different tones of brown and black skin represented when teaching dermatology undermines future physicians’ ability to identify, refer, and treat people of nonwhite skin once they start to practice medicine, even if they choose a specialty other than dermatology. Furthermore, this lack of diversity alienates students to patients with darker skin tones, thus hampering disadvantaged individuals’ access to quality health care. These disparities among patients with brown and black skin are known in the literature, including a larger probability to have worse survival outcomes after melanoma diagnosis 1 and a lower likelihood to be offered biologic therapy in the treatment of psoriasis. 2 While the American Academy of Dermatology Association and private learning companies have provided solutions, a robust bank of comparable images classified by the validated Fitzpatrick scale of skin type is not easily accessible to medical students. However, such resource is essential for undergraduate medical education to be effective in preparing the next generation of physicians to care for all patient populations regardless of their skin color. Approach: This multiphase curriculum innovation engaged a review board consisting of dermatology faculty, the course director, a librarian, the curriculum associate dean, and a medical student who identified, reviewed, and developed the innovation. Phase 1 consisted of a needs assessment, which identified current curriculum gaps and variables important to having a robust database, including images rated using Fitzpatrick scale (I–VI), quality of the images, appropriateness for medical undergraduate learning, cost to access and use in the curriculum, and ability for integration into current medical school education platforms. In Phase 2, an environmental scan assessed resources available and rated them using Phase 1 metrics. In Phase 3, a second editorial board composed of dermatologists, residents, medical students, and qualified faculty was convened to review and approve images for use in an open-source database for undergraduate medical education. Outcomes: Out of the 79 dermatological conditions taught by the American Academy of Dermatology Association 3 in their “Basic Dermatology Curriculum,” less than 15% contained images in nonwhite skin and none were portrayed in all Fitzpatrick scale skin types. Comparably, a review of our internal curriculum found that out of the 97 dermatological conditions taught, 48% were not taught in brown or black skin, and no condition was exhibited in the full range of the Fitzpatrick scale of skin type. These findings warrant the inclusion of additional images demonstrating the presentation of the same skin disease in different skin types, as well as accompanying clinical descriptions. The Phase 3 editorial board will convene before Fall of 2022 to peer review the 300+ images required to fill the gaps currently present in our curriculum. Significance: Creating an open-source dermatology database will require collaboration across the American Academy of Dermatology Association and AAMC schools to ensure a rich diversity of images and culturally appropriate descriptions are included. Knowing all medical schools have a need to construct a culturally conscious dermatology image collection, engaging librarians and multiple dermatology experts nationally is also critical to creating customizable and sustainable undergraduate medical curricula to answer this unmet need. Producing culturally humble and skilled physicians requires incorporating dermatology images in brown and black skin with specific descriptions to the curriculum of every medical school. This is an essential step to dismantle institutionalized racism in health care. 4 Acknowledgments: The authors wish to thank the University of Arizona College of Medicine faculty who fueled this initiative and Dr. Adam Friedman and Dr. Misty Eleryan, who contributed a rich set of skin disease images.</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>Academic Medicine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Academic Medicine</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://openalex.org/S19793444</t>
+          <t>https://doi.org/10.1097/acm.0000000000004866</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1040-2446</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37838870</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1097/acm.0000000000004866</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>S137</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>S137</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>11S</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1097/acm.0000000000004866</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4307501602</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4307501602", doi = "https://doi.org/10.1097/acm.0000000000004866", pmid = "https://pubmed.ncbi.nlm.nih.gov/37838870")</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1097/acm.0000000000004866</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2484922909", "https://openalex.org/W2911833343", "https://openalex.org/W3120850033")</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2899084033", "https://openalex.org/W4366769580", "https://openalex.org/W2350227609", "https://openalex.org/W3140304255", "https://openalex.org/W1546741102", "https://openalex.org/W2353368610", "https://openalex.org/W2002810666", "https://openalex.org/W2385913382", "https://openalex.org/W2388183047", "https://openalex.org/W3005664739")</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Rebecca Thiede_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Rebecca Thiede_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Dermatology, Medical College of Wisconsin, Milwaukee, Wisconsin; Division of Dermatology, University of Arizona, Tucson, Arizona; Division of Dermatology, University of Arizona, Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4224870206</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Late-onset systemic lupus erythematosus associated with inverse discoid lupus erythematosus on the buttock</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>JAAD Case Reports</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jdcr.2022.04.012</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35662853</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jdcr.2022.04.012</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Dermatology, College of Medicine, University of Arizona, Tucson, AZ, USA.; Division of Dermatology, College of Medicine, University of Arizona, Tucson, AZ, USA.; Matrix45, Tucson, AZ, USA.; Center for Health Outcomes and PharmacoEconomic Research, University of Arizona, Tucson, AZ, USA.; Matrix45, Tucson, AZ, USA.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4297964984</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Does synthetic pharmacotherapy still have a place in treating chronic spontaneous urticaria?</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-09-22</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Expert Opinion on Pharmacotherapy</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Taylor &amp; Francis</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/14656566.2022.2128671</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36173375</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/14656566.2022.2128671</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Author affiliation:A.J. Motta, R. Thiede, C. Stanescu, J. Corral, University of Arizona College of Medicine; Author affiliation:A.J. Motta, R. Thiede, C. Stanescu, J. Corral, University of Arizona College of Medicine; Author affiliation:A.J. Motta, R. Thiede, C. Stanescu, J. Corral, University of Arizona College of Medicine; Author affiliation:A.J. Motta, R. Thiede, C. Stanescu, J. Corral, University of Arizona College of Medicine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307501602</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Constructing a Culturally Conscious Dermatology Image Collection for Undergraduate Medical Education</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-10-18</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Academic Medicine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/acm.0000000000004866</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37838870</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/acm.0000000000004866</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
